--- a/wiaaWebscrape/Tournament Seeds 2022 and 2023 WI GBB.xlsx
+++ b/wiaaWebscrape/Tournament Seeds 2022 and 2023 WI GBB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edebroux/Documents/GHS Basketball/gibraltar_basketball/wiaaWebscrape/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1C85A8-C2CD-7A40-9BAC-B964A7493C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55969434-B77A-A04D-A765-30D315E0318F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-3600" windowWidth="38400" windowHeight="21600" xr2:uid="{E135CB48-3259-B54B-8939-94ED4E1A353B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{E135CB48-3259-B54B-8939-94ED4E1A353B}"/>
   </bookViews>
   <sheets>
     <sheet name="Seeds" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2783" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2783" uniqueCount="508">
   <si>
     <t>Team</t>
   </si>
@@ -738,9 +738,6 @@
     <t>Lake Mills</t>
   </si>
   <si>
-    <t>Racine St. Catherine's</t>
-  </si>
-  <si>
     <t>Big Foot</t>
   </si>
   <si>
@@ -1008,9 +1005,6 @@
     <t>Kohler</t>
   </si>
   <si>
-    <t>St. Mary's Springs</t>
-  </si>
-  <si>
     <t>Milwaukee Academy of Science</t>
   </si>
   <si>
@@ -1083,9 +1077,6 @@
     <t>Hurley</t>
   </si>
   <si>
-    <t>McDonnell Catholic</t>
-  </si>
-  <si>
     <t>Prentice</t>
   </si>
   <si>
@@ -1488,6 +1479,9 @@
     <t>Kenosha St. Joseph Catholic</t>
   </si>
   <si>
+    <t>Lourdes Acad.</t>
+  </si>
+  <si>
     <t>Luther</t>
   </si>
   <si>
@@ -1530,7 +1524,7 @@
     <t>Waukesha North/Waukesha South</t>
   </si>
   <si>
-    <t>Luxembourg-Casco</t>
+    <t>Milwaukee Bradley Tech/Milwaukee Arts</t>
   </si>
   <si>
     <t>Saint Joan Antida/Tenor/Veritas</t>
@@ -1545,25 +1539,28 @@
     <t>Three Lakes/Phelps</t>
   </si>
   <si>
-    <t>Green Bay N.E.W. Lutheran</t>
-  </si>
-  <si>
     <t>Independence/Gilmanton</t>
   </si>
   <si>
     <t>Argyle/Pecatonica</t>
   </si>
   <si>
-    <t>Valley Christian</t>
-  </si>
-  <si>
-    <t>Lourdes Academy</t>
-  </si>
-  <si>
     <t>Albany/Monticello</t>
   </si>
   <si>
-    <t>Faith Christian (Williams Bay)</t>
+    <t>Valley Christian (Oshkosh)</t>
+  </si>
+  <si>
+    <t>Green Bay N.E.W. Lutheran/Providence Academy (Green Bay)</t>
+  </si>
+  <si>
+    <t>Racine St. Catherines</t>
+  </si>
+  <si>
+    <t>Saint Croix Falls</t>
+  </si>
+  <si>
+    <t>St. Marys Springs</t>
   </si>
 </sst>
 </file>
@@ -1953,8 +1950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977D06BD-A441-3A4B-802D-F695C2F82097}">
   <dimension ref="A1:E1384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1160" workbookViewId="0">
-      <selection activeCell="B1001" sqref="B1001"/>
+    <sheetView tabSelected="1" topLeftCell="A1139" workbookViewId="0">
+      <selection activeCell="C1158" sqref="C1158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1982,7 +1979,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -1999,7 +1996,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -2016,7 +2013,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -2033,7 +2030,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -2050,7 +2047,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2067,7 +2064,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -2135,7 +2132,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -2152,7 +2149,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -2169,7 +2166,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -2186,7 +2183,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -2203,7 +2200,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -2220,7 +2217,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -2237,7 +2234,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -2254,7 +2251,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -2271,7 +2268,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -2288,7 +2285,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -2305,7 +2302,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -2322,7 +2319,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -2339,7 +2336,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -2356,7 +2353,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -2373,7 +2370,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -2747,7 +2744,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -2764,7 +2761,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B48">
         <v>4</v>
@@ -2781,7 +2778,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -2849,7 +2846,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B53">
         <v>5</v>
@@ -2866,7 +2863,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B54">
         <v>5</v>
@@ -2883,7 +2880,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -3053,7 +3050,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -3070,7 +3067,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -3087,7 +3084,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B67">
         <v>5</v>
@@ -3104,7 +3101,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B68">
         <v>5</v>
@@ -3121,7 +3118,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -3138,7 +3135,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B70">
         <v>5</v>
@@ -3155,7 +3152,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B71">
         <v>4</v>
@@ -3172,7 +3169,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B72">
         <v>4</v>
@@ -3189,7 +3186,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B73">
         <v>4</v>
@@ -3206,7 +3203,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B74">
         <v>4</v>
@@ -3223,7 +3220,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B75">
         <v>4</v>
@@ -3240,7 +3237,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B76">
         <v>4</v>
@@ -3257,7 +3254,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -3274,7 +3271,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -3291,7 +3288,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -3359,7 +3356,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B83">
         <v>5</v>
@@ -3376,7 +3373,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B84">
         <v>4</v>
@@ -3393,7 +3390,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B85">
         <v>4</v>
@@ -3461,7 +3458,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -3478,7 +3475,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B90">
         <v>5</v>
@@ -3495,7 +3492,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B91">
         <v>5</v>
@@ -3665,7 +3662,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B101">
         <v>4</v>
@@ -3682,7 +3679,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B102">
         <v>4</v>
@@ -3699,7 +3696,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B103">
         <v>4</v>
@@ -3716,7 +3713,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B104">
         <v>5</v>
@@ -3733,7 +3730,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B105">
         <v>5</v>
@@ -3750,7 +3747,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B106">
         <v>5</v>
@@ -3818,7 +3815,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B110">
         <v>5</v>
@@ -3835,7 +3832,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B111">
         <v>5</v>
@@ -3852,7 +3849,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B112">
         <v>5</v>
@@ -3920,7 +3917,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B116">
         <v>3</v>
@@ -3937,7 +3934,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B117">
         <v>3</v>
@@ -3954,7 +3951,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B118">
         <v>3</v>
@@ -3971,7 +3968,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B119">
         <v>5</v>
@@ -3988,7 +3985,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B120">
         <v>5</v>
@@ -4005,7 +4002,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B121">
         <v>5</v>
@@ -4022,7 +4019,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B122">
         <v>5</v>
@@ -4090,7 +4087,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B126">
         <v>5</v>
@@ -4107,7 +4104,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B127">
         <v>5</v>
@@ -4124,7 +4121,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B128">
         <v>5</v>
@@ -4192,7 +4189,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B132">
         <v>4</v>
@@ -4209,7 +4206,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B133">
         <v>4</v>
@@ -4226,7 +4223,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B134">
         <v>4</v>
@@ -4243,7 +4240,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B135">
         <v>4</v>
@@ -4260,7 +4257,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B136">
         <v>4</v>
@@ -4277,7 +4274,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B137">
         <v>4</v>
@@ -4294,7 +4291,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B138">
         <v>5</v>
@@ -4311,7 +4308,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B139">
         <v>5</v>
@@ -4328,7 +4325,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B140">
         <v>5</v>
@@ -4345,7 +4342,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B141">
         <v>4</v>
@@ -4362,7 +4359,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B142">
         <v>4</v>
@@ -4379,7 +4376,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B143">
         <v>4</v>
@@ -4447,7 +4444,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B147">
         <v>4</v>
@@ -4464,7 +4461,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B148">
         <v>3</v>
@@ -4481,7 +4478,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B149">
         <v>4</v>
@@ -4651,7 +4648,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B159">
         <v>5</v>
@@ -4668,7 +4665,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B160">
         <v>5</v>
@@ -4685,7 +4682,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B161">
         <v>5</v>
@@ -4753,7 +4750,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B165">
         <v>5</v>
@@ -4770,7 +4767,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B166">
         <v>5</v>
@@ -4838,7 +4835,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B170">
         <v>5</v>
@@ -4855,7 +4852,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B171">
         <v>5</v>
@@ -4872,7 +4869,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B172">
         <v>5</v>
@@ -4889,7 +4886,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B173">
         <v>4</v>
@@ -4906,7 +4903,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B174">
         <v>4</v>
@@ -4923,7 +4920,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B175">
         <v>4</v>
@@ -4940,7 +4937,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B176">
         <v>5</v>
@@ -4957,7 +4954,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B177">
         <v>5</v>
@@ -4974,7 +4971,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B178">
         <v>5</v>
@@ -4991,7 +4988,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B179">
         <v>4</v>
@@ -5008,7 +5005,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B180">
         <v>4</v>
@@ -5025,7 +5022,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B181">
         <v>4</v>
@@ -5042,7 +5039,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B182">
         <v>4</v>
@@ -5059,7 +5056,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B183">
         <v>4</v>
@@ -5076,7 +5073,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B184">
         <v>4</v>
@@ -5195,7 +5192,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B191">
         <v>4</v>
@@ -5212,7 +5209,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B192">
         <v>5</v>
@@ -5229,7 +5226,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B193">
         <v>5</v>
@@ -5246,7 +5243,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B194">
         <v>5</v>
@@ -5263,7 +5260,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B195">
         <v>5</v>
@@ -5280,7 +5277,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B196">
         <v>5</v>
@@ -5297,7 +5294,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B197">
         <v>3</v>
@@ -5314,7 +5311,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B198">
         <v>3</v>
@@ -5331,7 +5328,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B199">
         <v>3</v>
@@ -5348,7 +5345,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B200">
         <v>4</v>
@@ -5365,7 +5362,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B201">
         <v>4</v>
@@ -5382,7 +5379,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B202">
         <v>4</v>
@@ -5450,7 +5447,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B206">
         <v>5</v>
@@ -5467,7 +5464,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B207">
         <v>5</v>
@@ -5484,7 +5481,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B208">
         <v>5</v>
@@ -5501,7 +5498,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B209">
         <v>4</v>
@@ -5518,7 +5515,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B210">
         <v>4</v>
@@ -5535,7 +5532,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B211">
         <v>4</v>
@@ -5552,7 +5549,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B212">
         <v>5</v>
@@ -5569,7 +5566,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B213">
         <v>5</v>
@@ -5586,7 +5583,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B214">
         <v>4</v>
@@ -5603,7 +5600,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B215">
         <v>4</v>
@@ -5620,7 +5617,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B216">
         <v>4</v>
@@ -5739,7 +5736,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B223">
         <v>5</v>
@@ -5756,7 +5753,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B224">
         <v>5</v>
@@ -5773,7 +5770,7 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B225">
         <v>5</v>
@@ -5790,7 +5787,7 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B226">
         <v>5</v>
@@ -5807,7 +5804,7 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B227">
         <v>5</v>
@@ -5824,7 +5821,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B228">
         <v>5</v>
@@ -5943,7 +5940,7 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B235">
         <v>4</v>
@@ -5960,7 +5957,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B236">
         <v>5</v>
@@ -5977,7 +5974,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B237">
         <v>5</v>
@@ -5994,7 +5991,7 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B238">
         <v>4</v>
@@ -6011,7 +6008,7 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B239">
         <v>4</v>
@@ -6028,7 +6025,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B240">
         <v>4</v>
@@ -6045,7 +6042,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B241">
         <v>4</v>
@@ -6062,7 +6059,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B242">
         <v>4</v>
@@ -6079,7 +6076,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B243">
         <v>4</v>
@@ -6096,7 +6093,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B244">
         <v>4</v>
@@ -6113,7 +6110,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B245">
         <v>4</v>
@@ -6130,7 +6127,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B246">
         <v>4</v>
@@ -6198,7 +6195,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B250">
         <v>5</v>
@@ -6215,7 +6212,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B251">
         <v>5</v>
@@ -6232,7 +6229,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B252">
         <v>5</v>
@@ -6249,7 +6246,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B253">
         <v>5</v>
@@ -6266,7 +6263,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B254">
         <v>5</v>
@@ -6283,7 +6280,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B255">
         <v>5</v>
@@ -6300,7 +6297,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B256">
         <v>4</v>
@@ -6317,7 +6314,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B257">
         <v>4</v>
@@ -6334,7 +6331,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B258">
         <v>4</v>
@@ -6402,7 +6399,7 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B262">
         <v>4</v>
@@ -6419,7 +6416,7 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B263">
         <v>4</v>
@@ -6436,7 +6433,7 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B264">
         <v>4</v>
@@ -6453,7 +6450,7 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B265">
         <v>4</v>
@@ -6470,7 +6467,7 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B266">
         <v>4</v>
@@ -6487,7 +6484,7 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B267">
         <v>4</v>
@@ -6538,7 +6535,7 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B270">
         <v>4</v>
@@ -6555,7 +6552,7 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B271">
         <v>4</v>
@@ -6572,7 +6569,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B272">
         <v>4</v>
@@ -6640,7 +6637,7 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B276">
         <v>4</v>
@@ -6657,7 +6654,7 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B277">
         <v>4</v>
@@ -6674,7 +6671,7 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B278">
         <v>4</v>
@@ -6742,7 +6739,7 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B282">
         <v>5</v>
@@ -6759,7 +6756,7 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B283">
         <v>5</v>
@@ -6776,7 +6773,7 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B284">
         <v>5</v>
@@ -6793,7 +6790,7 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B285">
         <v>4</v>
@@ -6810,7 +6807,7 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B286">
         <v>4</v>
@@ -6827,7 +6824,7 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B287">
         <v>4</v>
@@ -6997,7 +6994,7 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B297">
         <v>4</v>
@@ -7065,7 +7062,7 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B301">
         <v>4</v>
@@ -7082,7 +7079,7 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B302">
         <v>4</v>
@@ -7099,7 +7096,7 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B303">
         <v>4</v>
@@ -7218,7 +7215,7 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B310">
         <v>5</v>
@@ -7235,7 +7232,7 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B311">
         <v>5</v>
@@ -7252,7 +7249,7 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B312">
         <v>5</v>
@@ -7269,7 +7266,7 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B313">
         <v>4</v>
@@ -7286,7 +7283,7 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B314">
         <v>4</v>
@@ -7303,7 +7300,7 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B315">
         <v>4</v>
@@ -7320,7 +7317,7 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B316">
         <v>3</v>
@@ -7337,7 +7334,7 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B317">
         <v>3</v>
@@ -7354,7 +7351,7 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B318">
         <v>3</v>
@@ -7371,7 +7368,7 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B319">
         <v>5</v>
@@ -7388,7 +7385,7 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B320">
         <v>5</v>
@@ -7405,7 +7402,7 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B321">
         <v>5</v>
@@ -7422,7 +7419,7 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B322">
         <v>5</v>
@@ -7541,7 +7538,7 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B329">
         <v>5</v>
@@ -7558,7 +7555,7 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B330">
         <v>5</v>
@@ -7575,7 +7572,7 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B331">
         <v>5</v>
@@ -7694,7 +7691,7 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B338">
         <v>5</v>
@@ -7711,7 +7708,7 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B339">
         <v>5</v>
@@ -7728,7 +7725,7 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B340">
         <v>5</v>
@@ -7745,7 +7742,7 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B341">
         <v>5</v>
@@ -7762,7 +7759,7 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B342">
         <v>5</v>
@@ -7830,7 +7827,7 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B346">
         <v>5</v>
@@ -7847,7 +7844,7 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B347">
         <v>5</v>
@@ -7864,7 +7861,7 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B348">
         <v>5</v>
@@ -8034,7 +8031,7 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>508</v>
+        <v>476</v>
       </c>
       <c r="B358">
         <v>5</v>
@@ -8051,7 +8048,7 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B359">
         <v>5</v>
@@ -8068,7 +8065,7 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B360">
         <v>5</v>
@@ -8085,7 +8082,7 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B361">
         <v>4</v>
@@ -8102,7 +8099,7 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B362">
         <v>4</v>
@@ -8119,7 +8116,7 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B363">
         <v>4</v>
@@ -8136,7 +8133,7 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B364">
         <v>5</v>
@@ -8153,7 +8150,7 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B365">
         <v>5</v>
@@ -8170,7 +8167,7 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B366">
         <v>5</v>
@@ -8187,7 +8184,7 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B367">
         <v>4</v>
@@ -8204,7 +8201,7 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B368">
         <v>4</v>
@@ -8221,7 +8218,7 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B369">
         <v>4</v>
@@ -8238,7 +8235,7 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B370">
         <v>5</v>
@@ -8255,7 +8252,7 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B371">
         <v>5</v>
@@ -8272,7 +8269,7 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B372">
         <v>5</v>
@@ -8289,7 +8286,7 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B373">
         <v>5</v>
@@ -8306,7 +8303,7 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B374">
         <v>5</v>
@@ -8323,7 +8320,7 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B375">
         <v>5</v>
@@ -8544,7 +8541,7 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B388">
         <v>5</v>
@@ -8561,7 +8558,7 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B389">
         <v>5</v>
@@ -8578,7 +8575,7 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B390">
         <v>5</v>
@@ -8748,7 +8745,7 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B400">
         <v>5</v>
@@ -8765,7 +8762,7 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B401">
         <v>5</v>
@@ -8782,7 +8779,7 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B402">
         <v>5</v>
@@ -8799,7 +8796,7 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B403">
         <v>5</v>
@@ -8816,7 +8813,7 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B404">
         <v>5</v>
@@ -8833,7 +8830,7 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B405">
         <v>5</v>
@@ -8850,7 +8847,7 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B406">
         <v>5</v>
@@ -8867,7 +8864,7 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B407">
         <v>5</v>
@@ -8884,7 +8881,7 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B408">
         <v>5</v>
@@ -8901,7 +8898,7 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B409">
         <v>5</v>
@@ -8918,7 +8915,7 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B410">
         <v>4</v>
@@ -8935,7 +8932,7 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B411">
         <v>5</v>
@@ -8952,7 +8949,7 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B412">
         <v>5</v>
@@ -9020,7 +9017,7 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B416">
         <v>5</v>
@@ -9037,7 +9034,7 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B417">
         <v>5</v>
@@ -9054,7 +9051,7 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B418">
         <v>5</v>
@@ -9122,7 +9119,7 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B422">
         <v>5</v>
@@ -9139,7 +9136,7 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B423">
         <v>4</v>
@@ -9156,7 +9153,7 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B424">
         <v>4</v>
@@ -9173,7 +9170,7 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B425">
         <v>4</v>
@@ -9241,7 +9238,7 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="B429">
         <v>5</v>
@@ -9258,7 +9255,7 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B430">
         <v>5</v>
@@ -9275,7 +9272,7 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B431">
         <v>5</v>
@@ -9496,7 +9493,7 @@
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B444">
         <v>5</v>
@@ -9513,7 +9510,7 @@
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B445">
         <v>5</v>
@@ -9530,7 +9527,7 @@
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B446">
         <v>5</v>
@@ -9547,7 +9544,7 @@
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B447">
         <v>5</v>
@@ -9564,7 +9561,7 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B448">
         <v>5</v>
@@ -9581,7 +9578,7 @@
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B449">
         <v>5</v>
@@ -9598,7 +9595,7 @@
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -9615,7 +9612,7 @@
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -9632,7 +9629,7 @@
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -9649,7 +9646,7 @@
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -9666,7 +9663,7 @@
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -9683,7 +9680,7 @@
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -9751,7 +9748,7 @@
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B459">
         <v>4</v>
@@ -9768,7 +9765,7 @@
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B460">
         <v>5</v>
@@ -9785,7 +9782,7 @@
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B461">
         <v>5</v>
@@ -9802,7 +9799,7 @@
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B462">
         <v>5</v>
@@ -9819,7 +9816,7 @@
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B463">
         <v>5</v>
@@ -9836,7 +9833,7 @@
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B464">
         <v>5</v>
@@ -9853,7 +9850,7 @@
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B465">
         <v>5</v>
@@ -9870,7 +9867,7 @@
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B466">
         <v>5</v>
@@ -9887,7 +9884,7 @@
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B467">
         <v>5</v>
@@ -9904,7 +9901,7 @@
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B468">
         <v>5</v>
@@ -9921,7 +9918,7 @@
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B469">
         <v>5</v>
@@ -9938,7 +9935,7 @@
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B470">
         <v>5</v>
@@ -10057,7 +10054,7 @@
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B477">
         <v>4</v>
@@ -10074,7 +10071,7 @@
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B478">
         <v>4</v>
@@ -10091,7 +10088,7 @@
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B479">
         <v>4</v>
@@ -10108,7 +10105,7 @@
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B480">
         <v>4</v>
@@ -10176,7 +10173,7 @@
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B484">
         <v>4</v>
@@ -10193,7 +10190,7 @@
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B485">
         <v>4</v>
@@ -10210,7 +10207,7 @@
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B486">
         <v>4</v>
@@ -10278,7 +10275,7 @@
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B490">
         <v>5</v>
@@ -10295,7 +10292,7 @@
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B491">
         <v>5</v>
@@ -10312,7 +10309,7 @@
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B492">
         <v>5</v>
@@ -10329,7 +10326,7 @@
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B493">
         <v>5</v>
@@ -10346,7 +10343,7 @@
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B494">
         <v>5</v>
@@ -10363,7 +10360,7 @@
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B495">
         <v>5</v>
@@ -10380,7 +10377,7 @@
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B496">
         <v>5</v>
@@ -10397,7 +10394,7 @@
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B497">
         <v>5</v>
@@ -10414,7 +10411,7 @@
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B498">
         <v>5</v>
@@ -10431,7 +10428,7 @@
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B499">
         <v>4</v>
@@ -10448,7 +10445,7 @@
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B500">
         <v>5</v>
@@ -10465,7 +10462,7 @@
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B501">
         <v>5</v>
@@ -10482,7 +10479,7 @@
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B502">
         <v>5</v>
@@ -10499,7 +10496,7 @@
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B503">
         <v>4</v>
@@ -10516,7 +10513,7 @@
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B504">
         <v>4</v>
@@ -10533,7 +10530,7 @@
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B505">
         <v>5</v>
@@ -10550,7 +10547,7 @@
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B506">
         <v>5</v>
@@ -10567,7 +10564,7 @@
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B507">
         <v>5</v>
@@ -10686,7 +10683,7 @@
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B514">
         <v>3</v>
@@ -10703,7 +10700,7 @@
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B515">
         <v>3</v>
@@ -10720,7 +10717,7 @@
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B516">
         <v>2</v>
@@ -10737,7 +10734,7 @@
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B517">
         <v>5</v>
@@ -10754,7 +10751,7 @@
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B518">
         <v>5</v>
@@ -10771,7 +10768,7 @@
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B519">
         <v>5</v>
@@ -10788,7 +10785,7 @@
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B520">
         <v>5</v>
@@ -10805,7 +10802,7 @@
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B521">
         <v>5</v>
@@ -10822,7 +10819,7 @@
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B522">
         <v>5</v>
@@ -10941,7 +10938,7 @@
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B529">
         <v>4</v>
@@ -10958,7 +10955,7 @@
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B530">
         <v>4</v>
@@ -10975,7 +10972,7 @@
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B531">
         <v>5</v>
@@ -11043,7 +11040,7 @@
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B535">
         <v>4</v>
@@ -11060,7 +11057,7 @@
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B536">
         <v>4</v>
@@ -11077,7 +11074,7 @@
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -11094,7 +11091,7 @@
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -11111,7 +11108,7 @@
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -11230,7 +11227,7 @@
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B546">
         <v>3</v>
@@ -11247,7 +11244,7 @@
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B547">
         <v>3</v>
@@ -11315,7 +11312,7 @@
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B551">
         <v>3</v>
@@ -11332,7 +11329,7 @@
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B552">
         <v>5</v>
@@ -11349,7 +11346,7 @@
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B553">
         <v>5</v>
@@ -11366,7 +11363,7 @@
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B554">
         <v>5</v>
@@ -11485,7 +11482,7 @@
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B561">
         <v>4</v>
@@ -11502,7 +11499,7 @@
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B562">
         <v>4</v>
@@ -11519,7 +11516,7 @@
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B563">
         <v>4</v>
@@ -11536,7 +11533,7 @@
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B564">
         <v>4</v>
@@ -11655,7 +11652,7 @@
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B571">
         <v>5</v>
@@ -11672,7 +11669,7 @@
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B572">
         <v>5</v>
@@ -11689,7 +11686,7 @@
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B573">
         <v>5</v>
@@ -11706,7 +11703,7 @@
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B574">
         <v>5</v>
@@ -11723,7 +11720,7 @@
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B575">
         <v>5</v>
@@ -11740,7 +11737,7 @@
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B576">
         <v>5</v>
@@ -11757,7 +11754,7 @@
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B577">
         <v>4</v>
@@ -11774,7 +11771,7 @@
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B578">
         <v>4</v>
@@ -11791,7 +11788,7 @@
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B579">
         <v>4</v>
@@ -11808,7 +11805,7 @@
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B580">
         <v>4</v>
@@ -11825,7 +11822,7 @@
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B581">
         <v>4</v>
@@ -11842,7 +11839,7 @@
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B582">
         <v>4</v>
@@ -11910,7 +11907,7 @@
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B586">
         <v>5</v>
@@ -11927,7 +11924,7 @@
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B587">
         <v>5</v>
@@ -11944,7 +11941,7 @@
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B588">
         <v>5</v>
@@ -12063,7 +12060,7 @@
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B595">
         <v>3</v>
@@ -12080,7 +12077,7 @@
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B596">
         <v>3</v>
@@ -12097,7 +12094,7 @@
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B597">
         <v>3</v>
@@ -12114,7 +12111,7 @@
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B598">
         <v>4</v>
@@ -12131,7 +12128,7 @@
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B599">
         <v>4</v>
@@ -12148,7 +12145,7 @@
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B600">
         <v>4</v>
@@ -12165,7 +12162,7 @@
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B601">
         <v>5</v>
@@ -12182,7 +12179,7 @@
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B602">
         <v>5</v>
@@ -12199,7 +12196,7 @@
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B603">
         <v>5</v>
@@ -12267,7 +12264,7 @@
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B607">
         <v>4</v>
@@ -12284,7 +12281,7 @@
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B608">
         <v>4</v>
@@ -12301,7 +12298,7 @@
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B609">
         <v>4</v>
@@ -12420,7 +12417,7 @@
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
       <c r="B616">
         <v>5</v>
@@ -12437,7 +12434,7 @@
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
       <c r="B617">
         <v>5</v>
@@ -12454,7 +12451,7 @@
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
       <c r="B618">
         <v>5</v>
@@ -12471,7 +12468,7 @@
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B619">
         <v>5</v>
@@ -12488,7 +12485,7 @@
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B620">
         <v>5</v>
@@ -12505,7 +12502,7 @@
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B621">
         <v>5</v>
@@ -12522,7 +12519,7 @@
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B622">
         <v>5</v>
@@ -12539,7 +12536,7 @@
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B623">
         <v>5</v>
@@ -12556,7 +12553,7 @@
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B624">
         <v>5</v>
@@ -12573,7 +12570,7 @@
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B625">
         <v>4</v>
@@ -12590,7 +12587,7 @@
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B626">
         <v>4</v>
@@ -12607,7 +12604,7 @@
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B627">
         <v>4</v>
@@ -12624,7 +12621,7 @@
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>497</v>
+        <v>91</v>
       </c>
       <c r="B628">
         <v>2</v>
@@ -12675,7 +12672,7 @@
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B631">
         <v>5</v>
@@ -12896,7 +12893,7 @@
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B644">
         <v>4</v>
@@ -12913,7 +12910,7 @@
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B645">
         <v>4</v>
@@ -12930,7 +12927,7 @@
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B646">
         <v>4</v>
@@ -12998,7 +12995,7 @@
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B650">
         <v>4</v>
@@ -13015,7 +13012,7 @@
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B651">
         <v>4</v>
@@ -13032,7 +13029,7 @@
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B652">
         <v>4</v>
@@ -13049,7 +13046,7 @@
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B653">
         <v>4</v>
@@ -13066,7 +13063,7 @@
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B654">
         <v>4</v>
@@ -13083,7 +13080,7 @@
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B655">
         <v>4</v>
@@ -13151,7 +13148,7 @@
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B659">
         <v>5</v>
@@ -13168,7 +13165,7 @@
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B660">
         <v>5</v>
@@ -13185,7 +13182,7 @@
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B661">
         <v>5</v>
@@ -13202,7 +13199,7 @@
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B662">
         <v>4</v>
@@ -13219,7 +13216,7 @@
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B663">
         <v>4</v>
@@ -13236,7 +13233,7 @@
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B664">
         <v>4</v>
@@ -13253,7 +13250,7 @@
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B665">
         <v>4</v>
@@ -13270,7 +13267,7 @@
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B666">
         <v>4</v>
@@ -13287,7 +13284,7 @@
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B667">
         <v>4</v>
@@ -13355,7 +13352,7 @@
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B671">
         <v>3</v>
@@ -13372,7 +13369,7 @@
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B672">
         <v>2</v>
@@ -13389,7 +13386,7 @@
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B673">
         <v>2</v>
@@ -13508,7 +13505,7 @@
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B680">
         <v>5</v>
@@ -13525,7 +13522,7 @@
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>348</v>
+        <v>459</v>
       </c>
       <c r="B681">
         <v>5</v>
@@ -13542,7 +13539,7 @@
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>348</v>
+        <v>459</v>
       </c>
       <c r="B682">
         <v>4</v>
@@ -13661,7 +13658,7 @@
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B689">
         <v>5</v>
@@ -13678,7 +13675,7 @@
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B690">
         <v>5</v>
@@ -13695,7 +13692,7 @@
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B691">
         <v>5</v>
@@ -13712,7 +13709,7 @@
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B692">
         <v>4</v>
@@ -13729,7 +13726,7 @@
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B693">
         <v>4</v>
@@ -13746,7 +13743,7 @@
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B694">
         <v>4</v>
@@ -13814,7 +13811,7 @@
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B698">
         <v>3</v>
@@ -13831,7 +13828,7 @@
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B699">
         <v>4</v>
@@ -13848,7 +13845,7 @@
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B700">
         <v>3</v>
@@ -13916,7 +13913,7 @@
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B704">
         <v>2</v>
@@ -13933,7 +13930,7 @@
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B705">
         <v>2</v>
@@ -13950,7 +13947,7 @@
     </row>
     <row r="706" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B706">
         <v>2</v>
@@ -13967,7 +13964,7 @@
     </row>
     <row r="707" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B707">
         <v>5</v>
@@ -13984,7 +13981,7 @@
     </row>
     <row r="708" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B708">
         <v>5</v>
@@ -14001,7 +13998,7 @@
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B709">
         <v>5</v>
@@ -14205,7 +14202,7 @@
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B721">
         <v>1</v>
@@ -14222,7 +14219,7 @@
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B722">
         <v>1</v>
@@ -14239,7 +14236,7 @@
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B723">
         <v>4</v>
@@ -14256,7 +14253,7 @@
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B724">
         <v>3</v>
@@ -14273,7 +14270,7 @@
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B725">
         <v>3</v>
@@ -14290,7 +14287,7 @@
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B726">
         <v>2</v>
@@ -14307,7 +14304,7 @@
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="B727">
         <v>1</v>
@@ -14324,7 +14321,7 @@
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B728">
         <v>1</v>
@@ -14341,7 +14338,7 @@
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B729">
         <v>1</v>
@@ -14409,7 +14406,7 @@
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B733">
         <v>4</v>
@@ -14701,7 +14698,7 @@
         <v>58</v>
       </c>
       <c r="B750">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C750" t="s">
         <v>54</v>
@@ -14715,7 +14712,7 @@
     </row>
     <row r="751" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B751">
         <v>1</v>
@@ -14732,7 +14729,7 @@
     </row>
     <row r="752" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B752">
         <v>1</v>
@@ -14749,7 +14746,7 @@
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B753">
         <v>1</v>
@@ -14868,7 +14865,7 @@
     </row>
     <row r="760" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B760">
         <v>2</v>
@@ -14885,7 +14882,7 @@
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B761">
         <v>2</v>
@@ -14902,7 +14899,7 @@
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B762">
         <v>2</v>
@@ -14919,7 +14916,7 @@
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B763">
         <v>4</v>
@@ -14936,7 +14933,7 @@
     </row>
     <row r="764" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B764">
         <v>4</v>
@@ -14953,7 +14950,7 @@
     </row>
     <row r="765" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B765">
         <v>4</v>
@@ -14970,7 +14967,7 @@
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B766">
         <v>4</v>
@@ -14987,7 +14984,7 @@
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B767">
         <v>4</v>
@@ -15004,7 +15001,7 @@
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B768">
         <v>4</v>
@@ -15021,7 +15018,7 @@
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B769">
         <v>4</v>
@@ -15038,7 +15035,7 @@
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B770">
         <v>4</v>
@@ -15055,7 +15052,7 @@
     </row>
     <row r="771" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B771">
         <v>4</v>
@@ -15174,7 +15171,7 @@
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B778">
         <v>4</v>
@@ -15191,7 +15188,7 @@
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B779">
         <v>4</v>
@@ -15208,7 +15205,7 @@
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B780">
         <v>4</v>
@@ -15225,7 +15222,7 @@
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B781">
         <v>5</v>
@@ -15242,7 +15239,7 @@
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B782">
         <v>5</v>
@@ -15463,7 +15460,7 @@
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B795">
         <v>4</v>
@@ -15480,7 +15477,7 @@
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B796">
         <v>4</v>
@@ -15497,7 +15494,7 @@
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B797">
         <v>4</v>
@@ -15565,7 +15562,7 @@
     </row>
     <row r="801" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B801">
         <v>4</v>
@@ -15582,7 +15579,7 @@
     </row>
     <row r="802" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B802">
         <v>4</v>
@@ -15599,7 +15596,7 @@
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B803">
         <v>4</v>
@@ -15616,7 +15613,7 @@
     </row>
     <row r="804" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B804">
         <v>4</v>
@@ -15633,7 +15630,7 @@
     </row>
     <row r="805" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B805">
         <v>4</v>
@@ -15650,7 +15647,7 @@
     </row>
     <row r="806" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B806">
         <v>4</v>
@@ -15667,7 +15664,7 @@
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B807">
         <v>5</v>
@@ -15684,7 +15681,7 @@
     </row>
     <row r="808" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B808">
         <v>5</v>
@@ -15701,7 +15698,7 @@
     </row>
     <row r="809" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B809">
         <v>5</v>
@@ -15820,7 +15817,7 @@
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B816">
         <v>4</v>
@@ -15837,7 +15834,7 @@
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B817">
         <v>4</v>
@@ -15854,7 +15851,7 @@
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B818">
         <v>4</v>
@@ -15922,7 +15919,7 @@
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B822">
         <v>5</v>
@@ -15939,7 +15936,7 @@
     </row>
     <row r="823" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B823">
         <v>5</v>
@@ -15956,7 +15953,7 @@
     </row>
     <row r="824" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B824">
         <v>5</v>
@@ -16075,7 +16072,7 @@
     </row>
     <row r="831" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B831">
         <v>5</v>
@@ -16092,7 +16089,7 @@
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B832">
         <v>5</v>
@@ -16109,7 +16106,7 @@
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B833">
         <v>5</v>
@@ -16126,7 +16123,7 @@
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B834">
         <v>5</v>
@@ -16143,7 +16140,7 @@
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B835">
         <v>5</v>
@@ -16160,7 +16157,7 @@
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B836">
         <v>5</v>
@@ -16228,7 +16225,7 @@
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B840">
         <v>5</v>
@@ -16245,7 +16242,7 @@
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B841">
         <v>5</v>
@@ -16262,7 +16259,7 @@
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B842">
         <v>5</v>
@@ -16330,7 +16327,7 @@
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B846">
         <v>5</v>
@@ -16347,7 +16344,7 @@
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B847">
         <v>5</v>
@@ -16364,7 +16361,7 @@
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B848">
         <v>5</v>
@@ -16483,7 +16480,7 @@
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B855">
         <v>5</v>
@@ -16500,7 +16497,7 @@
     </row>
     <row r="856" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B856">
         <v>5</v>
@@ -16517,7 +16514,7 @@
     </row>
     <row r="857" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B857">
         <v>5</v>
@@ -16636,7 +16633,7 @@
     </row>
     <row r="864" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B864">
         <v>5</v>
@@ -16653,7 +16650,7 @@
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B865">
         <v>5</v>
@@ -16670,7 +16667,7 @@
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B866">
         <v>5</v>
@@ -16755,7 +16752,7 @@
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B871">
         <v>4</v>
@@ -16772,7 +16769,7 @@
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B872">
         <v>4</v>
@@ -16789,7 +16786,7 @@
     </row>
     <row r="873" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B873">
         <v>4</v>
@@ -16959,7 +16956,7 @@
     </row>
     <row r="883" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B883">
         <v>5</v>
@@ -16976,7 +16973,7 @@
     </row>
     <row r="884" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B884">
         <v>5</v>
@@ -16993,7 +16990,7 @@
     </row>
     <row r="885" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B885">
         <v>5</v>
@@ -17265,7 +17262,7 @@
     </row>
     <row r="901" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B901">
         <v>4</v>
@@ -17282,7 +17279,7 @@
     </row>
     <row r="902" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B902">
         <v>4</v>
@@ -17299,7 +17296,7 @@
     </row>
     <row r="903" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B903">
         <v>4</v>
@@ -17316,7 +17313,7 @@
     </row>
     <row r="904" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B904">
         <v>5</v>
@@ -17333,7 +17330,7 @@
     </row>
     <row r="905" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B905">
         <v>5</v>
@@ -17350,7 +17347,7 @@
     </row>
     <row r="906" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B906">
         <v>5</v>
@@ -17367,7 +17364,7 @@
     </row>
     <row r="907" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B907">
         <v>4</v>
@@ -17384,7 +17381,7 @@
     </row>
     <row r="908" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B908">
         <v>4</v>
@@ -17401,7 +17398,7 @@
     </row>
     <row r="909" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B909">
         <v>5</v>
@@ -17418,7 +17415,7 @@
     </row>
     <row r="910" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B910">
         <v>5</v>
@@ -17435,7 +17432,7 @@
     </row>
     <row r="911" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B911">
         <v>5</v>
@@ -17452,7 +17449,7 @@
     </row>
     <row r="912" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B912">
         <v>5</v>
@@ -17469,7 +17466,7 @@
     </row>
     <row r="913" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B913">
         <v>4</v>
@@ -17486,7 +17483,7 @@
     </row>
     <row r="914" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B914">
         <v>5</v>
@@ -17503,7 +17500,7 @@
     </row>
     <row r="915" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B915">
         <v>5</v>
@@ -17520,7 +17517,7 @@
     </row>
     <row r="916" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B916">
         <v>4</v>
@@ -17537,7 +17534,7 @@
     </row>
     <row r="917" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B917">
         <v>4</v>
@@ -17554,7 +17551,7 @@
     </row>
     <row r="918" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B918">
         <v>4</v>
@@ -17571,7 +17568,7 @@
     </row>
     <row r="919" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B919">
         <v>4</v>
@@ -17588,7 +17585,7 @@
     </row>
     <row r="920" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B920">
         <v>4</v>
@@ -17605,7 +17602,7 @@
     </row>
     <row r="921" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B921">
         <v>4</v>
@@ -17622,7 +17619,7 @@
     </row>
     <row r="922" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B922">
         <v>5</v>
@@ -17639,7 +17636,7 @@
     </row>
     <row r="923" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B923">
         <v>5</v>
@@ -17758,7 +17755,7 @@
     </row>
     <row r="930" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B930">
         <v>4</v>
@@ -17775,7 +17772,7 @@
     </row>
     <row r="931" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B931">
         <v>4</v>
@@ -17792,7 +17789,7 @@
     </row>
     <row r="932" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B932">
         <v>4</v>
@@ -17809,7 +17806,7 @@
     </row>
     <row r="933" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B933">
         <v>5</v>
@@ -17826,7 +17823,7 @@
     </row>
     <row r="934" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B934">
         <v>5</v>
@@ -17843,7 +17840,7 @@
     </row>
     <row r="935" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B935">
         <v>5</v>
@@ -17962,7 +17959,7 @@
     </row>
     <row r="942" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B942">
         <v>4</v>
@@ -17979,7 +17976,7 @@
     </row>
     <row r="943" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B943">
         <v>5</v>
@@ -17996,7 +17993,7 @@
     </row>
     <row r="944" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B944">
         <v>5</v>
@@ -18064,7 +18061,7 @@
     </row>
     <row r="948" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B948">
         <v>5</v>
@@ -18081,7 +18078,7 @@
     </row>
     <row r="949" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B949">
         <v>5</v>
@@ -18098,7 +18095,7 @@
     </row>
     <row r="950" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B950">
         <v>5</v>
@@ -18217,7 +18214,7 @@
     </row>
     <row r="957" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B957">
         <v>5</v>
@@ -18234,7 +18231,7 @@
     </row>
     <row r="958" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B958">
         <v>5</v>
@@ -18251,7 +18248,7 @@
     </row>
     <row r="959" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B959">
         <v>5</v>
@@ -18268,7 +18265,7 @@
     </row>
     <row r="960" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B960">
         <v>4</v>
@@ -18285,7 +18282,7 @@
     </row>
     <row r="961" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B961">
         <v>4</v>
@@ -18302,7 +18299,7 @@
     </row>
     <row r="962" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B962">
         <v>4</v>
@@ -18370,7 +18367,7 @@
     </row>
     <row r="966" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B966">
         <v>5</v>
@@ -18387,7 +18384,7 @@
     </row>
     <row r="967" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B967">
         <v>5</v>
@@ -18404,7 +18401,7 @@
     </row>
     <row r="968" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B968">
         <v>5</v>
@@ -18421,7 +18418,7 @@
     </row>
     <row r="969" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B969">
         <v>5</v>
@@ -18438,7 +18435,7 @@
     </row>
     <row r="970" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B970">
         <v>5</v>
@@ -18455,7 +18452,7 @@
     </row>
     <row r="971" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B971">
         <v>5</v>
@@ -18523,7 +18520,7 @@
     </row>
     <row r="975" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B975">
         <v>4</v>
@@ -18540,7 +18537,7 @@
     </row>
     <row r="976" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B976">
         <v>4</v>
@@ -18557,7 +18554,7 @@
     </row>
     <row r="977" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B977">
         <v>4</v>
@@ -18727,7 +18724,7 @@
     </row>
     <row r="987" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B987">
         <v>4</v>
@@ -18744,7 +18741,7 @@
     </row>
     <row r="988" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B988">
         <v>3</v>
@@ -18761,7 +18758,7 @@
     </row>
     <row r="989" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B989">
         <v>4</v>
@@ -18829,7 +18826,7 @@
     </row>
     <row r="993" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
-        <v>233</v>
+        <v>505</v>
       </c>
       <c r="B993">
         <v>3</v>
@@ -18846,7 +18843,7 @@
     </row>
     <row r="994" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
-        <v>233</v>
+        <v>505</v>
       </c>
       <c r="B994">
         <v>3</v>
@@ -18863,7 +18860,7 @@
     </row>
     <row r="995" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
-        <v>233</v>
+        <v>505</v>
       </c>
       <c r="B995">
         <v>3</v>
@@ -18880,7 +18877,7 @@
     </row>
     <row r="996" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B996">
         <v>5</v>
@@ -18897,7 +18894,7 @@
     </row>
     <row r="997" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B997">
         <v>4</v>
@@ -18914,7 +18911,7 @@
     </row>
     <row r="998" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B998">
         <v>5</v>
@@ -18931,7 +18928,7 @@
     </row>
     <row r="999" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B999">
         <v>4</v>
@@ -18948,7 +18945,7 @@
     </row>
     <row r="1000" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B1000">
         <v>4</v>
@@ -18965,7 +18962,7 @@
     </row>
     <row r="1001" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B1001">
         <v>4</v>
@@ -19033,7 +19030,7 @@
     </row>
     <row r="1005" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B1005">
         <v>5</v>
@@ -19050,7 +19047,7 @@
     </row>
     <row r="1006" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1006" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B1006">
         <v>5</v>
@@ -19067,7 +19064,7 @@
     </row>
     <row r="1007" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B1007">
         <v>5</v>
@@ -19084,7 +19081,7 @@
     </row>
     <row r="1008" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B1008">
         <v>4</v>
@@ -19101,7 +19098,7 @@
     </row>
     <row r="1009" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B1009">
         <v>4</v>
@@ -19118,7 +19115,7 @@
     </row>
     <row r="1010" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B1010">
         <v>4</v>
@@ -19186,7 +19183,7 @@
     </row>
     <row r="1014" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B1014">
         <v>5</v>
@@ -19203,7 +19200,7 @@
     </row>
     <row r="1015" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B1015">
         <v>5</v>
@@ -19220,7 +19217,7 @@
     </row>
     <row r="1016" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B1016">
         <v>5</v>
@@ -19339,7 +19336,7 @@
     </row>
     <row r="1023" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B1023">
         <v>5</v>
@@ -19356,7 +19353,7 @@
     </row>
     <row r="1024" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B1024">
         <v>5</v>
@@ -19373,7 +19370,7 @@
     </row>
     <row r="1025" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B1025">
         <v>5</v>
@@ -19492,7 +19489,7 @@
     </row>
     <row r="1032" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B1032">
         <v>5</v>
@@ -19509,7 +19506,7 @@
     </row>
     <row r="1033" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B1033">
         <v>4</v>
@@ -19526,7 +19523,7 @@
     </row>
     <row r="1034" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B1034">
         <v>5</v>
@@ -19594,7 +19591,7 @@
     </row>
     <row r="1038" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B1038">
         <v>4</v>
@@ -19611,7 +19608,7 @@
     </row>
     <row r="1039" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B1039">
         <v>4</v>
@@ -19628,7 +19625,7 @@
     </row>
     <row r="1040" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B1040">
         <v>5</v>
@@ -19645,7 +19642,7 @@
     </row>
     <row r="1041" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B1041">
         <v>4</v>
@@ -19662,7 +19659,7 @@
     </row>
     <row r="1042" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B1042">
         <v>4</v>
@@ -19679,7 +19676,7 @@
     </row>
     <row r="1043" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B1043">
         <v>4</v>
@@ -19696,7 +19693,7 @@
     </row>
     <row r="1044" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B1044">
         <v>5</v>
@@ -19713,7 +19710,7 @@
     </row>
     <row r="1045" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B1045">
         <v>5</v>
@@ -19730,7 +19727,7 @@
     </row>
     <row r="1046" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B1046">
         <v>5</v>
@@ -19747,7 +19744,7 @@
     </row>
     <row r="1047" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B1047">
         <v>5</v>
@@ -19764,7 +19761,7 @@
     </row>
     <row r="1048" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B1048">
         <v>5</v>
@@ -19781,7 +19778,7 @@
     </row>
     <row r="1049" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B1049">
         <v>5</v>
@@ -19849,7 +19846,7 @@
     </row>
     <row r="1053" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B1053">
         <v>3</v>
@@ -19866,7 +19863,7 @@
     </row>
     <row r="1054" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B1054">
         <v>3</v>
@@ -19883,7 +19880,7 @@
     </row>
     <row r="1055" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B1055">
         <v>3</v>
@@ -19900,7 +19897,7 @@
     </row>
     <row r="1056" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B1056">
         <v>2</v>
@@ -19917,7 +19914,7 @@
     </row>
     <row r="1057" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1057" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B1057">
         <v>4</v>
@@ -19934,7 +19931,7 @@
     </row>
     <row r="1058" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1058" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B1058">
         <v>4</v>
@@ -19951,7 +19948,7 @@
     </row>
     <row r="1059" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B1059">
         <v>4</v>
@@ -19968,7 +19965,7 @@
     </row>
     <row r="1060" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B1060">
         <v>5</v>
@@ -19985,7 +19982,7 @@
     </row>
     <row r="1061" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B1061">
         <v>5</v>
@@ -20002,7 +19999,7 @@
     </row>
     <row r="1062" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B1062">
         <v>3</v>
@@ -20019,7 +20016,7 @@
     </row>
     <row r="1063" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B1063">
         <v>3</v>
@@ -20036,7 +20033,7 @@
     </row>
     <row r="1064" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1064" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B1064">
         <v>3</v>
@@ -20053,7 +20050,7 @@
     </row>
     <row r="1065" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B1065">
         <v>4</v>
@@ -20070,7 +20067,7 @@
     </row>
     <row r="1066" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B1066">
         <v>5</v>
@@ -20087,7 +20084,7 @@
     </row>
     <row r="1067" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B1067">
         <v>5</v>
@@ -20155,7 +20152,7 @@
     </row>
     <row r="1071" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B1071">
         <v>5</v>
@@ -20172,7 +20169,7 @@
     </row>
     <row r="1072" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B1072">
         <v>5</v>
@@ -20189,7 +20186,7 @@
     </row>
     <row r="1073" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B1073">
         <v>5</v>
@@ -20206,7 +20203,7 @@
     </row>
     <row r="1074" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B1074">
         <v>5</v>
@@ -20223,7 +20220,7 @@
     </row>
     <row r="1075" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1075" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B1075">
         <v>5</v>
@@ -20240,7 +20237,7 @@
     </row>
     <row r="1076" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1076" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B1076">
         <v>5</v>
@@ -20359,7 +20356,7 @@
     </row>
     <row r="1083" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B1083">
         <v>5</v>
@@ -20376,7 +20373,7 @@
     </row>
     <row r="1084" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B1084">
         <v>5</v>
@@ -20393,7 +20390,7 @@
     </row>
     <row r="1085" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B1085">
         <v>5</v>
@@ -20461,7 +20458,7 @@
     </row>
     <row r="1089" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B1089">
         <v>5</v>
@@ -20478,7 +20475,7 @@
     </row>
     <row r="1090" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B1090">
         <v>4</v>
@@ -20495,7 +20492,7 @@
     </row>
     <row r="1091" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1091" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B1091">
         <v>4</v>
@@ -20614,7 +20611,7 @@
     </row>
     <row r="1098" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1098" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B1098">
         <v>4</v>
@@ -20631,7 +20628,7 @@
     </row>
     <row r="1099" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1099" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B1099">
         <v>5</v>
@@ -20648,7 +20645,7 @@
     </row>
     <row r="1100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B1100">
         <v>4</v>
@@ -20665,7 +20662,7 @@
     </row>
     <row r="1101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B1101">
         <v>4</v>
@@ -20682,7 +20679,7 @@
     </row>
     <row r="1102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B1102">
         <v>4</v>
@@ -20699,7 +20696,7 @@
     </row>
     <row r="1103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B1103">
         <v>4</v>
@@ -20716,7 +20713,7 @@
     </row>
     <row r="1104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B1104">
         <v>3</v>
@@ -20733,7 +20730,7 @@
     </row>
     <row r="1105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B1105">
         <v>3</v>
@@ -20750,7 +20747,7 @@
     </row>
     <row r="1106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B1106">
         <v>3</v>
@@ -20818,7 +20815,7 @@
     </row>
     <row r="1110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B1110">
         <v>5</v>
@@ -20835,7 +20832,7 @@
     </row>
     <row r="1111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1111" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B1111">
         <v>5</v>
@@ -20852,7 +20849,7 @@
     </row>
     <row r="1112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1112" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B1112">
         <v>5</v>
@@ -20869,7 +20866,7 @@
     </row>
     <row r="1113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B1113">
         <v>5</v>
@@ -20886,7 +20883,7 @@
     </row>
     <row r="1114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B1114">
         <v>5</v>
@@ -20903,7 +20900,7 @@
     </row>
     <row r="1115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B1115">
         <v>5</v>
@@ -20971,7 +20968,7 @@
     </row>
     <row r="1119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1119" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B1119">
         <v>5</v>
@@ -20988,7 +20985,7 @@
     </row>
     <row r="1120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1120" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B1120">
         <v>5</v>
@@ -21005,7 +21002,7 @@
     </row>
     <row r="1121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B1121">
         <v>5</v>
@@ -21124,7 +21121,7 @@
     </row>
     <row r="1128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1128" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B1128">
         <v>5</v>
@@ -21141,7 +21138,7 @@
     </row>
     <row r="1129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B1129">
         <v>5</v>
@@ -21158,7 +21155,7 @@
     </row>
     <row r="1130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B1130">
         <v>5</v>
@@ -21226,7 +21223,7 @@
     </row>
     <row r="1134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B1134">
         <v>5</v>
@@ -21243,7 +21240,7 @@
     </row>
     <row r="1135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B1135">
         <v>5</v>
@@ -21260,7 +21257,7 @@
     </row>
     <row r="1136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B1136">
         <v>5</v>
@@ -21328,7 +21325,7 @@
     </row>
     <row r="1140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1140" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B1140">
         <v>5</v>
@@ -21345,7 +21342,7 @@
     </row>
     <row r="1141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B1141">
         <v>4</v>
@@ -21362,7 +21359,7 @@
     </row>
     <row r="1142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1142" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B1142">
         <v>4</v>
@@ -21430,7 +21427,7 @@
     </row>
     <row r="1146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1146" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B1146">
         <v>4</v>
@@ -21447,7 +21444,7 @@
     </row>
     <row r="1147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1147" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B1147">
         <v>4</v>
@@ -21464,7 +21461,7 @@
     </row>
     <row r="1148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1148" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B1148">
         <v>5</v>
@@ -21481,7 +21478,7 @@
     </row>
     <row r="1149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1149" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B1149">
         <v>3</v>
@@ -21498,7 +21495,7 @@
     </row>
     <row r="1150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1150" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B1150">
         <v>2</v>
@@ -21600,7 +21597,7 @@
     </row>
     <row r="1156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
-        <v>154</v>
+        <v>506</v>
       </c>
       <c r="B1156">
         <v>3</v>
@@ -21617,7 +21614,7 @@
     </row>
     <row r="1157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
-        <v>323</v>
+        <v>507</v>
       </c>
       <c r="B1157">
         <v>4</v>
@@ -21634,7 +21631,7 @@
     </row>
     <row r="1158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
-        <v>323</v>
+        <v>507</v>
       </c>
       <c r="B1158">
         <v>4</v>
@@ -21651,7 +21648,7 @@
     </row>
     <row r="1159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
-        <v>323</v>
+        <v>507</v>
       </c>
       <c r="B1159">
         <v>4</v>
@@ -21770,7 +21767,7 @@
     </row>
     <row r="1166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1166" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B1166">
         <v>5</v>
@@ -21787,7 +21784,7 @@
     </row>
     <row r="1167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B1167">
         <v>5</v>
@@ -21855,7 +21852,7 @@
     </row>
     <row r="1171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B1171">
         <v>4</v>
@@ -21872,7 +21869,7 @@
     </row>
     <row r="1172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1172" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B1172">
         <v>4</v>
@@ -21889,7 +21886,7 @@
     </row>
     <row r="1173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1173" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B1173">
         <v>4</v>
@@ -21974,7 +21971,7 @@
     </row>
     <row r="1178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B1178">
         <v>1</v>
@@ -21991,7 +21988,7 @@
     </row>
     <row r="1179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B1179">
         <v>1</v>
@@ -22008,7 +22005,7 @@
     </row>
     <row r="1180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B1180">
         <v>1</v>
@@ -22025,7 +22022,7 @@
     </row>
     <row r="1181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B1181">
         <v>1</v>
@@ -22093,7 +22090,7 @@
     </row>
     <row r="1185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B1185">
         <v>5</v>
@@ -22110,7 +22107,7 @@
     </row>
     <row r="1186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1186" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B1186">
         <v>5</v>
@@ -22127,7 +22124,7 @@
     </row>
     <row r="1187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1187" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B1187">
         <v>5</v>
@@ -22144,7 +22141,7 @@
     </row>
     <row r="1188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1188" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B1188">
         <v>4</v>
@@ -22161,7 +22158,7 @@
     </row>
     <row r="1189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1189" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B1189">
         <v>4</v>
@@ -22178,7 +22175,7 @@
     </row>
     <row r="1190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1190" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B1190">
         <v>4</v>
@@ -22195,7 +22192,7 @@
     </row>
     <row r="1191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1191" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B1191">
         <v>5</v>
@@ -22212,7 +22209,7 @@
     </row>
     <row r="1192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1192" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B1192">
         <v>5</v>
@@ -22229,7 +22226,7 @@
     </row>
     <row r="1193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1193" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B1193">
         <v>5</v>
@@ -22246,7 +22243,7 @@
     </row>
     <row r="1194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1194" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B1194">
         <v>5</v>
@@ -22263,7 +22260,7 @@
     </row>
     <row r="1195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1195" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B1195">
         <v>5</v>
@@ -22280,7 +22277,7 @@
     </row>
     <row r="1196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1196" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B1196">
         <v>5</v>
@@ -22297,7 +22294,7 @@
     </row>
     <row r="1197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1197" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B1197">
         <v>5</v>
@@ -22314,7 +22311,7 @@
     </row>
     <row r="1198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1198" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B1198">
         <v>5</v>
@@ -22331,7 +22328,7 @@
     </row>
     <row r="1199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1199" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B1199">
         <v>2</v>
@@ -22348,7 +22345,7 @@
     </row>
     <row r="1200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1200" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B1200">
         <v>2</v>
@@ -22433,7 +22430,7 @@
     </row>
     <row r="1205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1205" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B1205">
         <v>5</v>
@@ -22450,7 +22447,7 @@
     </row>
     <row r="1206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1206" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B1206">
         <v>5</v>
@@ -22467,7 +22464,7 @@
     </row>
     <row r="1207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1207" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B1207">
         <v>5</v>
@@ -22484,7 +22481,7 @@
     </row>
     <row r="1208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1208" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B1208">
         <v>3</v>
@@ -22501,7 +22498,7 @@
     </row>
     <row r="1209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1209" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B1209">
         <v>3</v>
@@ -22518,7 +22515,7 @@
     </row>
     <row r="1210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1210" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B1210">
         <v>3</v>
@@ -22535,7 +22532,7 @@
     </row>
     <row r="1211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1211" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B1211">
         <v>5</v>
@@ -22552,7 +22549,7 @@
     </row>
     <row r="1212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1212" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B1212">
         <v>5</v>
@@ -22569,7 +22566,7 @@
     </row>
     <row r="1213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1213" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B1213">
         <v>5</v>
@@ -22688,7 +22685,7 @@
     </row>
     <row r="1220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1220" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1220">
         <v>4</v>
@@ -22705,7 +22702,7 @@
     </row>
     <row r="1221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1221" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1221">
         <v>4</v>
@@ -22722,7 +22719,7 @@
     </row>
     <row r="1222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1222" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1222">
         <v>4</v>
@@ -22739,7 +22736,7 @@
     </row>
     <row r="1223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1223" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B1223">
         <v>5</v>
@@ -22756,7 +22753,7 @@
     </row>
     <row r="1224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1224" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B1224">
         <v>3</v>
@@ -22773,7 +22770,7 @@
     </row>
     <row r="1225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1225" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B1225">
         <v>5</v>
@@ -22824,7 +22821,7 @@
     </row>
     <row r="1228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B1228">
         <v>4</v>
@@ -22841,7 +22838,7 @@
     </row>
     <row r="1229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B1229">
         <v>4</v>
@@ -22858,7 +22855,7 @@
     </row>
     <row r="1230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B1230">
         <v>4</v>
@@ -22875,7 +22872,7 @@
     </row>
     <row r="1231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1231" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B1231">
         <v>5</v>
@@ -22994,7 +22991,7 @@
     </row>
     <row r="1238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1238" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B1238">
         <v>5</v>
@@ -23011,7 +23008,7 @@
     </row>
     <row r="1239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1239" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B1239">
         <v>5</v>
@@ -23028,7 +23025,7 @@
     </row>
     <row r="1240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1240" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B1240">
         <v>5</v>
@@ -23045,7 +23042,7 @@
     </row>
     <row r="1241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B1241">
         <v>5</v>
@@ -23062,7 +23059,7 @@
     </row>
     <row r="1242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1242" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B1242">
         <v>5</v>
@@ -23079,7 +23076,7 @@
     </row>
     <row r="1243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B1243">
         <v>5</v>
@@ -23147,7 +23144,7 @@
     </row>
     <row r="1247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1247" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B1247">
         <v>4</v>
@@ -23164,7 +23161,7 @@
     </row>
     <row r="1248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1248" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B1248">
         <v>4</v>
@@ -23181,7 +23178,7 @@
     </row>
     <row r="1249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1249" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B1249">
         <v>4</v>
@@ -23334,7 +23331,7 @@
     </row>
     <row r="1258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1258" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B1258">
         <v>1</v>
@@ -23419,7 +23416,7 @@
     </row>
     <row r="1263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1263" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B1263">
         <v>1</v>
@@ -23436,7 +23433,7 @@
     </row>
     <row r="1264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1264" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B1264">
         <v>1</v>
@@ -23453,7 +23450,7 @@
     </row>
     <row r="1265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1265" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B1265">
         <v>1</v>
@@ -23470,7 +23467,7 @@
     </row>
     <row r="1266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B1266">
         <v>2</v>
@@ -23487,7 +23484,7 @@
     </row>
     <row r="1267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1267" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B1267">
         <v>3</v>
@@ -23657,7 +23654,7 @@
     </row>
     <row r="1277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1277" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B1277">
         <v>5</v>
@@ -23674,7 +23671,7 @@
     </row>
     <row r="1278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1278" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B1278">
         <v>5</v>
@@ -23691,7 +23688,7 @@
     </row>
     <row r="1279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1279" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B1279">
         <v>5</v>
@@ -23861,7 +23858,7 @@
     </row>
     <row r="1289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1289" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B1289">
         <v>5</v>
@@ -23878,7 +23875,7 @@
     </row>
     <row r="1290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1290" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B1290">
         <v>5</v>
@@ -23895,7 +23892,7 @@
     </row>
     <row r="1291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1291" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B1291">
         <v>5</v>
@@ -23912,7 +23909,7 @@
     </row>
     <row r="1292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1292" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B1292">
         <v>5</v>
@@ -23929,7 +23926,7 @@
     </row>
     <row r="1293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1293" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B1293">
         <v>5</v>
@@ -23946,7 +23943,7 @@
     </row>
     <row r="1294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1294" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B1294">
         <v>5</v>
@@ -23963,7 +23960,7 @@
     </row>
     <row r="1295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1295" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B1295">
         <v>4</v>
@@ -23980,7 +23977,7 @@
     </row>
     <row r="1296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1296" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B1296">
         <v>4</v>
@@ -23997,7 +23994,7 @@
     </row>
     <row r="1297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1297" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B1297">
         <v>5</v>
@@ -24303,7 +24300,7 @@
     </row>
     <row r="1315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1315" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B1315">
         <v>3</v>
@@ -24320,7 +24317,7 @@
     </row>
     <row r="1316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1316" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B1316">
         <v>4</v>
@@ -24337,7 +24334,7 @@
     </row>
     <row r="1317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1317" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B1317">
         <v>4</v>
@@ -24354,7 +24351,7 @@
     </row>
     <row r="1318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1318" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B1318">
         <v>4</v>
@@ -24371,7 +24368,7 @@
     </row>
     <row r="1319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1319" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B1319">
         <v>4</v>
@@ -24388,7 +24385,7 @@
     </row>
     <row r="1320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1320" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B1320">
         <v>4</v>
@@ -24405,7 +24402,7 @@
     </row>
     <row r="1321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1321" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B1321">
         <v>5</v>
@@ -24422,7 +24419,7 @@
     </row>
     <row r="1322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1322" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B1322">
         <v>5</v>
@@ -24490,7 +24487,7 @@
     </row>
     <row r="1326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1326" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B1326">
         <v>4</v>
@@ -24507,7 +24504,7 @@
     </row>
     <row r="1327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1327" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B1327">
         <v>4</v>
@@ -24524,7 +24521,7 @@
     </row>
     <row r="1328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1328" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B1328">
         <v>4</v>
@@ -24541,7 +24538,7 @@
     </row>
     <row r="1329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1329" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B1329">
         <v>5</v>
@@ -24558,7 +24555,7 @@
     </row>
     <row r="1330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1330" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B1330">
         <v>5</v>
@@ -24626,7 +24623,7 @@
     </row>
     <row r="1334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1334" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B1334">
         <v>4</v>
@@ -24643,7 +24640,7 @@
     </row>
     <row r="1335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1335" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B1335">
         <v>4</v>
@@ -24660,7 +24657,7 @@
     </row>
     <row r="1336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1336" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B1336">
         <v>4</v>
@@ -24677,7 +24674,7 @@
     </row>
     <row r="1337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1337" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B1337">
         <v>3</v>
@@ -24694,7 +24691,7 @@
     </row>
     <row r="1338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1338" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B1338">
         <v>3</v>
@@ -24711,7 +24708,7 @@
     </row>
     <row r="1339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1339" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B1339">
         <v>2</v>
@@ -24779,7 +24776,7 @@
     </row>
     <row r="1343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1343" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B1343">
         <v>5</v>
@@ -24796,7 +24793,7 @@
     </row>
     <row r="1344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1344" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B1344">
         <v>5</v>
@@ -24813,7 +24810,7 @@
     </row>
     <row r="1345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1345" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B1345">
         <v>5</v>
@@ -24830,7 +24827,7 @@
     </row>
     <row r="1346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1346" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B1346">
         <v>4</v>
@@ -24847,7 +24844,7 @@
     </row>
     <row r="1347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1347" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B1347">
         <v>4</v>
@@ -24864,7 +24861,7 @@
     </row>
     <row r="1348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1348" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B1348">
         <v>4</v>
@@ -24881,7 +24878,7 @@
     </row>
     <row r="1349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1349" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B1349">
         <v>2</v>
@@ -24898,7 +24895,7 @@
     </row>
     <row r="1350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1350" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B1350">
         <v>2</v>
@@ -24915,7 +24912,7 @@
     </row>
     <row r="1351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1351" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B1351">
         <v>2</v>
@@ -24932,7 +24929,7 @@
     </row>
     <row r="1352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1352" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B1352">
         <v>4</v>
@@ -24949,7 +24946,7 @@
     </row>
     <row r="1353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1353" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B1353">
         <v>4</v>
@@ -24966,7 +24963,7 @@
     </row>
     <row r="1354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1354" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B1354">
         <v>4</v>
@@ -25034,7 +25031,7 @@
     </row>
     <row r="1358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1358" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B1358">
         <v>5</v>
@@ -25051,7 +25048,7 @@
     </row>
     <row r="1359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1359" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B1359">
         <v>5</v>
@@ -25068,7 +25065,7 @@
     </row>
     <row r="1360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1360" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B1360">
         <v>5</v>
@@ -25136,7 +25133,7 @@
     </row>
     <row r="1364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1364" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B1364">
         <v>4</v>
@@ -25153,7 +25150,7 @@
     </row>
     <row r="1365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1365" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B1365">
         <v>4</v>
@@ -25170,7 +25167,7 @@
     </row>
     <row r="1366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1366" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B1366">
         <v>4</v>
@@ -25272,7 +25269,7 @@
     </row>
     <row r="1372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1372" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B1372">
         <v>1</v>
@@ -25289,7 +25286,7 @@
     </row>
     <row r="1373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1373" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B1373">
         <v>4</v>
@@ -25306,7 +25303,7 @@
     </row>
     <row r="1374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1374" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B1374">
         <v>4</v>
@@ -25323,7 +25320,7 @@
     </row>
     <row r="1375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1375" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B1375">
         <v>3</v>
@@ -25340,7 +25337,7 @@
     </row>
     <row r="1376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1376" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B1376">
         <v>5</v>
@@ -25357,7 +25354,7 @@
     </row>
     <row r="1377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1377" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B1377">
         <v>5</v>
@@ -25374,7 +25371,7 @@
     </row>
     <row r="1378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1378" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B1378">
         <v>5</v>
@@ -25442,7 +25439,7 @@
     </row>
     <row r="1382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1382" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B1382">
         <v>3</v>
@@ -25459,7 +25456,7 @@
     </row>
     <row r="1383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1383" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B1383">
         <v>3</v>
@@ -25476,7 +25473,7 @@
     </row>
     <row r="1384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1384" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B1384">
         <v>3</v>
@@ -25514,10 +25511,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -25525,7 +25522,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -25533,7 +25530,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -25541,7 +25538,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -25549,7 +25546,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -25557,7 +25554,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
